--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_16_9.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_16_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1498609.956223399</v>
+        <v>-1501178.379662345</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10116307.12854491</v>
+        <v>10116307.12854492</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>166.6473286471309</v>
+        <v>355.8126253390002</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1379,10 +1379,10 @@
         <v>355.0091537477815</v>
       </c>
       <c r="F11" t="n">
-        <v>379.9548294172311</v>
+        <v>273.9589999086815</v>
       </c>
       <c r="G11" t="n">
-        <v>384.0005093289731</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>267.6865480628401</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.26654546369551</v>
+        <v>82.26654546369549</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1427,7 +1427,7 @@
         <v>224.0739556344216</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>300.8310421456546</v>
       </c>
       <c r="W11" t="n">
         <v>322.3197523929327</v>
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>152.9107638574569</v>
+        <v>152.910763857457</v>
       </c>
       <c r="C13" t="n">
         <v>140.3256047741475</v>
@@ -1534,19 +1534,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>119.5127463220888</v>
       </c>
       <c r="F13" t="n">
         <v>118.4998316984509</v>
       </c>
       <c r="G13" t="n">
-        <v>33.65223243342315</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>117.8337985898404</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>69.43120408535773</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,16 +1576,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>162.8478090069615</v>
+        <v>7.556091032938184</v>
       </c>
       <c r="T13" t="n">
-        <v>192.6277329516888</v>
+        <v>192.6277329516889</v>
       </c>
       <c r="U13" t="n">
         <v>259.2906218811326</v>
       </c>
       <c r="V13" t="n">
-        <v>225.2164269993476</v>
+        <v>225.2164269993477</v>
       </c>
       <c r="W13" t="n">
         <v>259.6017820121107</v>
@@ -1594,7 +1594,7 @@
         <v>198.7884390645568</v>
       </c>
       <c r="Y13" t="n">
-        <v>191.6634370276144</v>
+        <v>191.6634370276145</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>355.8126253390002</v>
       </c>
       <c r="C14" t="n">
         <v>338.3516754465272</v>
@@ -1613,13 +1613,13 @@
         <v>327.7618252962026</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>355.0091537477815</v>
       </c>
       <c r="F14" t="n">
         <v>379.9548294172311</v>
       </c>
       <c r="G14" t="n">
-        <v>384.0005093289731</v>
+        <v>198.9684619844172</v>
       </c>
       <c r="H14" t="n">
         <v>267.6865480628401</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>26.47322553415426</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>176.9967538151398</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1667,7 +1667,7 @@
         <v>300.8310421456546</v>
       </c>
       <c r="W14" t="n">
-        <v>322.3197523929327</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>342.8098843539887</v>
@@ -1762,10 +1762,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>152.9107638574569</v>
+        <v>152.910763857457</v>
       </c>
       <c r="C16" t="n">
-        <v>140.3256047741475</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>121.694256693732</v>
@@ -1783,7 +1783,7 @@
         <v>117.8337985898404</v>
       </c>
       <c r="I16" t="n">
-        <v>69.43120408535776</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>62.01093634556699</v>
+        <v>18.88266925654872</v>
       </c>
       <c r="S16" t="n">
-        <v>162.8478090069615</v>
+        <v>162.8478090069616</v>
       </c>
       <c r="T16" t="n">
-        <v>192.6277329516888</v>
+        <v>192.6277329516889</v>
       </c>
       <c r="U16" t="n">
         <v>259.2906218811326</v>
@@ -1825,13 +1825,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>6.7167060635878</v>
+        <v>259.6017820121107</v>
       </c>
       <c r="X16" t="n">
         <v>198.7884390645568</v>
       </c>
       <c r="Y16" t="n">
-        <v>191.6634370276144</v>
+        <v>191.6634370276145</v>
       </c>
     </row>
     <row r="17">
@@ -1856,7 +1856,7 @@
         <v>332.9796927986384</v>
       </c>
       <c r="G17" t="n">
-        <v>312.8257194403406</v>
+        <v>337.0253727103805</v>
       </c>
       <c r="H17" t="n">
         <v>220.7114114442475</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>35.29140884510288</v>
+        <v>35.29140884510286</v>
       </c>
       <c r="T17" t="n">
-        <v>130.0216171965472</v>
+        <v>105.821963926506</v>
       </c>
       <c r="U17" t="n">
         <v>177.098819015829</v>
@@ -1938,10 +1938,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2002,22 +2002,22 @@
         <v>105.9356272388643</v>
       </c>
       <c r="C19" t="n">
-        <v>93.35046815555485</v>
+        <v>93.35046815555486</v>
       </c>
       <c r="D19" t="n">
-        <v>74.71912007513937</v>
+        <v>74.71912007513939</v>
       </c>
       <c r="E19" t="n">
-        <v>72.53760970349619</v>
+        <v>72.5376097034962</v>
       </c>
       <c r="F19" t="n">
-        <v>71.52469507985826</v>
+        <v>71.52469507985828</v>
       </c>
       <c r="G19" t="n">
-        <v>92.12945531595524</v>
+        <v>154.5462653085816</v>
       </c>
       <c r="H19" t="n">
-        <v>70.8586619712478</v>
+        <v>70.85866197124781</v>
       </c>
       <c r="I19" t="n">
         <v>22.45606746676513</v>
@@ -2062,7 +2062,7 @@
         <v>178.241290380755</v>
       </c>
       <c r="W19" t="n">
-        <v>275.043455386144</v>
+        <v>212.626645393518</v>
       </c>
       <c r="X19" t="n">
         <v>151.8133024459642</v>
@@ -2090,13 +2090,13 @@
         <v>308.0340171291889</v>
       </c>
       <c r="F20" t="n">
-        <v>253.7984563352521</v>
+        <v>332.9796927986386</v>
       </c>
       <c r="G20" t="n">
         <v>337.0253727103806</v>
       </c>
       <c r="H20" t="n">
-        <v>220.7114114442476</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2132,13 +2132,13 @@
         <v>35.29140884510294</v>
       </c>
       <c r="T20" t="n">
-        <v>130.0216171965473</v>
+        <v>17.69588665034688</v>
       </c>
       <c r="U20" t="n">
         <v>177.0988190158291</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>253.855905527062</v>
       </c>
       <c r="W20" t="n">
         <v>275.3446157743401</v>
@@ -2245,10 +2245,10 @@
         <v>74.71912007513944</v>
       </c>
       <c r="E22" t="n">
-        <v>134.9544196961214</v>
+        <v>72.53760970349626</v>
       </c>
       <c r="F22" t="n">
-        <v>71.52469507985833</v>
+        <v>133.9415050724835</v>
       </c>
       <c r="G22" t="n">
         <v>92.12945531595531</v>
@@ -2527,7 +2527,7 @@
         <v>115.872672388369</v>
       </c>
       <c r="T25" t="n">
-        <v>145.6525963330963</v>
+        <v>208.0694063257215</v>
       </c>
       <c r="U25" t="n">
         <v>212.3154852625399</v>
@@ -2536,7 +2536,7 @@
         <v>178.2412903807551</v>
       </c>
       <c r="W25" t="n">
-        <v>275.0434553861431</v>
+        <v>212.6266453935181</v>
       </c>
       <c r="X25" t="n">
         <v>151.8133024459642</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.21262516958329</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T26" t="n">
         <v>156.9428335210276</v>
@@ -2719,19 +2719,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797661</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F28" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G28" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H28" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2795,16 +2795,16 @@
         <v>318.297755152415</v>
       </c>
       <c r="D29" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E29" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F29" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G29" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H29" t="n">
         <v>247.6326277687279</v>
@@ -2852,10 +2852,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W29" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X29" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y29" t="n">
         <v>339.262802037461</v>
@@ -3032,16 +3032,16 @@
         <v>318.297755152415</v>
       </c>
       <c r="D32" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E32" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F32" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G32" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H32" t="n">
         <v>247.6326277687279</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958329</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T32" t="n">
         <v>156.9428335210276</v>
@@ -3089,10 +3089,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W32" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X32" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y32" t="n">
         <v>339.262802037461</v>
@@ -3187,25 +3187,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C34" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D34" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G34" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H34" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S34" t="n">
         <v>142.7938887128493</v>
@@ -3266,19 +3266,19 @@
         <v>335.758705044888</v>
       </c>
       <c r="C35" t="n">
-        <v>318.2977551524149</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D35" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E35" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F35" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G35" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H35" t="n">
         <v>247.6326277687279</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>62.21262516958326</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T35" t="n">
         <v>156.9428335210276</v>
@@ -3326,10 +3326,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W35" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X35" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y35" t="n">
         <v>339.262802037461</v>
@@ -3424,25 +3424,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C37" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D37" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E37" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F37" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G37" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H37" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I37" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S37" t="n">
         <v>142.7938887128493</v>
@@ -3503,19 +3503,19 @@
         <v>335.758705044888</v>
       </c>
       <c r="C38" t="n">
-        <v>318.2977551524149</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D38" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E38" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F38" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G38" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H38" t="n">
         <v>247.6326277687279</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>62.21262516958325</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T38" t="n">
         <v>156.9428335210276</v>
@@ -3563,10 +3563,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W38" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X38" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y38" t="n">
         <v>339.262802037461</v>
@@ -3597,10 +3597,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3661,25 +3661,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C40" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D40" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F40" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G40" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H40" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124551</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95701605145474</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S40" t="n">
         <v>142.7938887128493</v>
@@ -3740,19 +3740,19 @@
         <v>335.758705044888</v>
       </c>
       <c r="C41" t="n">
-        <v>318.2977551524149</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D41" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E41" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F41" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G41" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H41" t="n">
         <v>247.6326277687279</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>62.21262516958326</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T41" t="n">
         <v>156.9428335210276</v>
@@ -3800,10 +3800,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W41" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X41" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y41" t="n">
         <v>339.262802037461</v>
@@ -3898,25 +3898,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C43" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D43" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797657</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433864</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G43" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77987829572818</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124551</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145473</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S43" t="n">
         <v>142.7938887128493</v>
@@ -3952,7 +3952,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U43" t="n">
-        <v>239.2367015870202</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V43" t="n">
         <v>205.1625067052354</v>
@@ -3961,7 +3961,7 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X43" t="n">
-        <v>178.7345187704445</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y43" t="n">
         <v>171.6095167335022</v>
@@ -3977,22 +3977,22 @@
         <v>335.758705044888</v>
       </c>
       <c r="C44" t="n">
-        <v>318.2977551524149</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D44" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E44" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F44" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G44" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H44" t="n">
-        <v>247.6326277687278</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4037,10 +4037,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W44" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X44" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y44" t="n">
         <v>339.262802037461</v>
@@ -4135,25 +4135,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C46" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D46" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797657</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433864</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G46" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77987829572818</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124551</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145473</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S46" t="n">
         <v>142.7938887128493</v>
@@ -4198,7 +4198,7 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X46" t="n">
-        <v>178.7345187704445</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y46" t="n">
         <v>171.6095167335022</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1813.046034918521</v>
+        <v>1318.100238112941</v>
       </c>
       <c r="C11" t="n">
-        <v>1813.046034918521</v>
+        <v>1318.100238112941</v>
       </c>
       <c r="D11" t="n">
-        <v>1481.973484114276</v>
+        <v>987.0276873086962</v>
       </c>
       <c r="E11" t="n">
-        <v>1123.378379318537</v>
+        <v>628.4325825129573</v>
       </c>
       <c r="F11" t="n">
-        <v>739.5856223314352</v>
+        <v>351.7063199789367</v>
       </c>
       <c r="G11" t="n">
-        <v>351.7063199789369</v>
+        <v>351.7063199789367</v>
       </c>
       <c r="H11" t="n">
-        <v>81.31586739020946</v>
+        <v>81.31586739020928</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218357</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3242.50830093877</v>
+        <v>3242.508300938771</v>
       </c>
       <c r="T11" t="n">
-        <v>3242.50830093877</v>
+        <v>3242.508300938771</v>
       </c>
       <c r="U11" t="n">
-        <v>3016.170972015112</v>
+        <v>3016.170972015113</v>
       </c>
       <c r="V11" t="n">
-        <v>3016.170972015112</v>
+        <v>2712.301232474048</v>
       </c>
       <c r="W11" t="n">
-        <v>2690.595464547503</v>
+        <v>2386.725725006439</v>
       </c>
       <c r="X11" t="n">
-        <v>2344.322854088929</v>
+        <v>2040.453114547864</v>
       </c>
       <c r="Y11" t="n">
-        <v>1981.376669915622</v>
+        <v>1677.506930374558</v>
       </c>
     </row>
     <row r="12">
@@ -5094,37 +5094,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811077</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999807</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387296</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E12" t="n">
-        <v>458.918960533274</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601591</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927775</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I12" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228005</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5136,34 +5136,34 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q12" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="13">
@@ -5173,49 +5173,49 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>480.9681442057814</v>
+        <v>637.8284653916637</v>
       </c>
       <c r="C13" t="n">
-        <v>339.2251090803799</v>
+        <v>496.0854302662624</v>
       </c>
       <c r="D13" t="n">
-        <v>339.2251090803799</v>
+        <v>496.0854302662624</v>
       </c>
       <c r="E13" t="n">
-        <v>339.2251090803799</v>
+        <v>375.3654844863745</v>
       </c>
       <c r="F13" t="n">
-        <v>219.5283093849749</v>
+        <v>255.6686847909695</v>
       </c>
       <c r="G13" t="n">
-        <v>185.5361554118202</v>
+        <v>255.6686847909695</v>
       </c>
       <c r="H13" t="n">
-        <v>66.5121164321834</v>
+        <v>136.6446458113327</v>
       </c>
       <c r="I13" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>138.2867530403545</v>
+        <v>138.2867530403546</v>
       </c>
       <c r="K13" t="n">
-        <v>368.9259401504664</v>
+        <v>368.9259401504665</v>
       </c>
       <c r="L13" t="n">
         <v>712.1377427601981</v>
       </c>
       <c r="M13" t="n">
-        <v>1082.946792520983</v>
+        <v>1082.946792520982</v>
       </c>
       <c r="N13" t="n">
         <v>1451.007173388083</v>
       </c>
       <c r="O13" t="n">
-        <v>1776.988776469731</v>
+        <v>1776.988776469732</v>
       </c>
       <c r="P13" t="n">
-        <v>2036.248281064626</v>
+        <v>2036.248281064627</v>
       </c>
       <c r="Q13" t="n">
         <v>2140.510581378377</v>
@@ -5224,25 +5224,25 @@
         <v>2140.510581378377</v>
       </c>
       <c r="S13" t="n">
-        <v>1976.017845007708</v>
+        <v>2132.878166193591</v>
       </c>
       <c r="T13" t="n">
-        <v>1781.44437737974</v>
+        <v>1938.304698565622</v>
       </c>
       <c r="U13" t="n">
-        <v>1519.534658307889</v>
+        <v>1676.394979493771</v>
       </c>
       <c r="V13" t="n">
-        <v>1292.043317904508</v>
+        <v>1448.90363909039</v>
       </c>
       <c r="W13" t="n">
-        <v>1029.819295670052</v>
+        <v>1186.679616855935</v>
       </c>
       <c r="X13" t="n">
-        <v>829.0228925745404</v>
+        <v>985.8832137604227</v>
       </c>
       <c r="Y13" t="n">
-        <v>635.4234612335157</v>
+        <v>792.283782419398</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1781.416548302663</v>
+        <v>1953.110595174607</v>
       </c>
       <c r="C14" t="n">
-        <v>1439.647179164756</v>
+        <v>1611.341226036701</v>
       </c>
       <c r="D14" t="n">
-        <v>1108.574628360511</v>
+        <v>1280.268675232456</v>
       </c>
       <c r="E14" t="n">
-        <v>1108.574628360511</v>
+        <v>921.673570436717</v>
       </c>
       <c r="F14" t="n">
-        <v>724.781871373409</v>
+        <v>537.8808134496148</v>
       </c>
       <c r="G14" t="n">
         <v>336.9025690209108</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S14" t="n">
-        <v>3298.86518975649</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="T14" t="n">
-        <v>3120.080589943218</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="U14" t="n">
-        <v>3120.080589943218</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="V14" t="n">
-        <v>2816.210850402153</v>
+        <v>3021.736082068104</v>
       </c>
       <c r="W14" t="n">
-        <v>2490.635342934544</v>
+        <v>3021.736082068104</v>
       </c>
       <c r="X14" t="n">
-        <v>2144.362732475969</v>
+        <v>2675.46347160953</v>
       </c>
       <c r="Y14" t="n">
-        <v>1781.416548302663</v>
+        <v>2312.517287436223</v>
       </c>
     </row>
     <row r="15">
@@ -5349,25 +5349,25 @@
         <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L15" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O15" t="n">
         <v>2096.912393410638</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>901.2616458242696</v>
+        <v>689.386081319719</v>
       </c>
       <c r="C16" t="n">
-        <v>759.5186106988681</v>
+        <v>689.386081319719</v>
       </c>
       <c r="D16" t="n">
-        <v>636.5951190890378</v>
+        <v>566.4625897098887</v>
       </c>
       <c r="E16" t="n">
-        <v>515.8751733091501</v>
+        <v>445.7426439300009</v>
       </c>
       <c r="F16" t="n">
-        <v>396.1783736137451</v>
+        <v>326.045844234596</v>
       </c>
       <c r="G16" t="n">
-        <v>255.6686847909695</v>
+        <v>185.5361554118202</v>
       </c>
       <c r="H16" t="n">
-        <v>136.6446458113327</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J16" t="n">
-        <v>138.2867530403548</v>
+        <v>138.2867530403544</v>
       </c>
       <c r="K16" t="n">
-        <v>368.9259401504667</v>
+        <v>368.9259401504662</v>
       </c>
       <c r="L16" t="n">
-        <v>712.1377427601983</v>
+        <v>712.1377427601979</v>
       </c>
       <c r="M16" t="n">
         <v>1082.946792520982</v>
@@ -5458,28 +5458,28 @@
         <v>2140.510581378377</v>
       </c>
       <c r="R16" t="n">
-        <v>2077.87327193841</v>
+        <v>2121.437178088933</v>
       </c>
       <c r="S16" t="n">
-        <v>1913.380535567741</v>
+        <v>1956.944441718265</v>
       </c>
       <c r="T16" t="n">
-        <v>1718.807067939773</v>
+        <v>1762.370974090296</v>
       </c>
       <c r="U16" t="n">
-        <v>1456.897348867922</v>
+        <v>1500.461255018445</v>
       </c>
       <c r="V16" t="n">
-        <v>1456.897348867922</v>
+        <v>1500.461255018445</v>
       </c>
       <c r="W16" t="n">
-        <v>1450.112797288541</v>
+        <v>1238.23723278399</v>
       </c>
       <c r="X16" t="n">
-        <v>1249.316394193029</v>
+        <v>1037.440829688478</v>
       </c>
       <c r="Y16" t="n">
-        <v>1055.716962852004</v>
+        <v>843.8413983474533</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1830.8697611978</v>
+        <v>1855.313855409961</v>
       </c>
       <c r="C17" t="n">
-        <v>1536.550025007967</v>
+        <v>1560.994119220128</v>
       </c>
       <c r="D17" t="n">
-        <v>1252.927107151795</v>
+        <v>1277.371201363957</v>
       </c>
       <c r="E17" t="n">
-        <v>941.7816353041295</v>
+        <v>966.2257295162909</v>
       </c>
       <c r="F17" t="n">
-        <v>605.4385112651007</v>
+        <v>629.8826054772621</v>
       </c>
       <c r="G17" t="n">
-        <v>289.4529360728374</v>
+        <v>289.4529360728375</v>
       </c>
       <c r="H17" t="n">
         <v>66.51211643218342</v>
@@ -5513,10 +5513,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329464</v>
@@ -5543,22 +5543,22 @@
         <v>3289.957933886844</v>
       </c>
       <c r="T17" t="n">
-        <v>3158.622967021645</v>
+        <v>3183.067061233808</v>
       </c>
       <c r="U17" t="n">
-        <v>2979.735271046061</v>
+        <v>3004.179365258222</v>
       </c>
       <c r="V17" t="n">
-        <v>2723.315164453069</v>
+        <v>2747.75925866523</v>
       </c>
       <c r="W17" t="n">
-        <v>2445.189289933533</v>
+        <v>2469.633384145695</v>
       </c>
       <c r="X17" t="n">
-        <v>2146.366312423032</v>
+        <v>2170.810406635194</v>
       </c>
       <c r="Y17" t="n">
-        <v>1830.8697611978</v>
+        <v>1855.313855409961</v>
       </c>
     </row>
     <row r="18">
@@ -5568,43 +5568,43 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G18" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I18" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
         <v>2096.912393410638</v>
@@ -5625,7 +5625,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V18" t="n">
         <v>1779.608347199865</v>
@@ -5634,10 +5634,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="19">
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>569.114215187756</v>
+        <v>632.1614980085908</v>
       </c>
       <c r="C19" t="n">
-        <v>474.8208130104279</v>
+        <v>537.8680958312626</v>
       </c>
       <c r="D19" t="n">
-        <v>399.346954348671</v>
+        <v>462.3942371695057</v>
       </c>
       <c r="E19" t="n">
-        <v>326.0766415168566</v>
+        <v>389.1239243376913</v>
       </c>
       <c r="F19" t="n">
-        <v>253.829474769525</v>
+        <v>316.8767575903597</v>
       </c>
       <c r="G19" t="n">
         <v>160.7694188948228</v>
@@ -5671,16 +5671,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L19" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N19" t="n">
         <v>1317.747152581905</v>
@@ -5692,31 +5692,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q19" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R19" t="n">
         <v>1912.106871596599</v>
       </c>
       <c r="S19" t="n">
-        <v>1795.063768174004</v>
+        <v>1795.063768174005</v>
       </c>
       <c r="T19" t="n">
         <v>1647.939933494109</v>
       </c>
       <c r="U19" t="n">
-        <v>1433.479847370331</v>
+        <v>1433.479847370332</v>
       </c>
       <c r="V19" t="n">
         <v>1253.438139915023</v>
       </c>
       <c r="W19" t="n">
-        <v>975.6164678078068</v>
+        <v>1038.663750628642</v>
       </c>
       <c r="X19" t="n">
-        <v>822.2696976603683</v>
+        <v>885.316980481203</v>
       </c>
       <c r="Y19" t="n">
-        <v>676.1198992674169</v>
+        <v>739.1671820882517</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1775.332808477247</v>
+        <v>1632.373035769308</v>
       </c>
       <c r="C20" t="n">
-        <v>1481.013072287414</v>
+        <v>1338.053299579474</v>
       </c>
       <c r="D20" t="n">
-        <v>1197.390154431243</v>
+        <v>1054.430381723303</v>
       </c>
       <c r="E20" t="n">
-        <v>886.2446825835773</v>
+        <v>743.2849098756371</v>
       </c>
       <c r="F20" t="n">
-        <v>629.8826054772622</v>
+        <v>406.9417858366082</v>
       </c>
       <c r="G20" t="n">
-        <v>289.4529360728376</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H20" t="n">
         <v>66.51211643218342</v>
@@ -5759,16 +5759,16 @@
         <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N20" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q20" t="n">
         <v>3266.588755052368</v>
@@ -5780,22 +5780,22 @@
         <v>3289.957933886844</v>
       </c>
       <c r="T20" t="n">
-        <v>3158.622967021645</v>
+        <v>3272.083300906696</v>
       </c>
       <c r="U20" t="n">
-        <v>2979.73527104606</v>
+        <v>3093.195604931112</v>
       </c>
       <c r="V20" t="n">
-        <v>2979.73527104606</v>
+        <v>2836.77549833812</v>
       </c>
       <c r="W20" t="n">
-        <v>2701.609396526525</v>
+        <v>2558.649623818585</v>
       </c>
       <c r="X20" t="n">
-        <v>2402.786419016024</v>
+        <v>2259.826646308084</v>
       </c>
       <c r="Y20" t="n">
-        <v>2087.289867790791</v>
+        <v>1944.330095082851</v>
       </c>
     </row>
     <row r="21">
@@ -5829,19 +5829,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O21" t="n">
         <v>2096.912393410638</v>
@@ -5893,7 +5893,7 @@
         <v>462.3942371695048</v>
       </c>
       <c r="E22" t="n">
-        <v>326.0766415168569</v>
+        <v>389.1239243376904</v>
       </c>
       <c r="F22" t="n">
         <v>253.8294747695252</v>
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1862.179185073753</v>
+        <v>1862.179185073751</v>
       </c>
       <c r="C23" t="n">
-        <v>1567.85944888392</v>
+        <v>1567.859448883918</v>
       </c>
       <c r="D23" t="n">
-        <v>1284.236531027748</v>
+        <v>1284.236531027746</v>
       </c>
       <c r="E23" t="n">
-        <v>973.0910591800823</v>
+        <v>973.0910591800809</v>
       </c>
       <c r="F23" t="n">
-        <v>636.7479351410534</v>
+        <v>636.747935141052</v>
       </c>
       <c r="G23" t="n">
-        <v>296.3182657366275</v>
+        <v>296.3182657366274</v>
       </c>
       <c r="H23" t="n">
-        <v>73.37744609597337</v>
+        <v>73.37744609597333</v>
       </c>
       <c r="I23" t="n">
-        <v>73.37744609597337</v>
+        <v>73.37744609597333</v>
       </c>
       <c r="J23" t="n">
-        <v>323.4066341531488</v>
+        <v>280.0770094909375</v>
       </c>
       <c r="K23" t="n">
-        <v>657.2260078429952</v>
+        <v>613.8963831807839</v>
       </c>
       <c r="L23" t="n">
-        <v>1108.260221091404</v>
+        <v>1064.930596429193</v>
       </c>
       <c r="M23" t="n">
-        <v>1641.792125763328</v>
+        <v>1598.462501101117</v>
       </c>
       <c r="N23" t="n">
-        <v>2188.57094282211</v>
+        <v>2145.241318159899</v>
       </c>
       <c r="O23" t="n">
-        <v>2691.543413701447</v>
+        <v>2648.213789039236</v>
       </c>
       <c r="P23" t="n">
-        <v>3086.317780058625</v>
+        <v>3361.568876486182</v>
       </c>
       <c r="Q23" t="n">
-        <v>3544.795982567613</v>
+        <v>3609.855238241864</v>
       </c>
       <c r="R23" t="n">
-        <v>3668.872304798668</v>
+        <v>3668.872304798666</v>
       </c>
       <c r="S23" t="n">
-        <v>3633.224417076342</v>
+        <v>3633.22441707634</v>
       </c>
       <c r="T23" t="n">
-        <v>3501.889450211142</v>
+        <v>3501.889450211141</v>
       </c>
       <c r="U23" t="n">
-        <v>3323.001754235557</v>
+        <v>3323.001754235556</v>
       </c>
       <c r="V23" t="n">
-        <v>3066.581647642565</v>
+        <v>3066.581647642564</v>
       </c>
       <c r="W23" t="n">
-        <v>2788.45577312303</v>
+        <v>2788.455773123029</v>
       </c>
       <c r="X23" t="n">
-        <v>2489.632795612529</v>
+        <v>2489.632795612527</v>
       </c>
       <c r="Y23" t="n">
-        <v>2174.136244387296</v>
+        <v>2174.136244387294</v>
       </c>
     </row>
     <row r="24">
@@ -6060,10 +6060,10 @@
         <v>182.8866320565679</v>
       </c>
       <c r="H24" t="n">
-        <v>92.38473769443544</v>
+        <v>92.38473769443539</v>
       </c>
       <c r="I24" t="n">
-        <v>73.37744609597337</v>
+        <v>73.37744609597333</v>
       </c>
       <c r="J24" t="n">
         <v>167.0547155865906</v>
@@ -6072,7 +6072,7 @@
         <v>405.3189145669377</v>
       </c>
       <c r="L24" t="n">
-        <v>772.017074879603</v>
+        <v>772.0170748796029</v>
       </c>
       <c r="M24" t="n">
         <v>1219.293400101919</v>
@@ -6121,34 +6121,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>575.9795448515465</v>
+        <v>575.9795448515464</v>
       </c>
       <c r="C25" t="n">
-        <v>481.6861426742183</v>
+        <v>481.6861426742182</v>
       </c>
       <c r="D25" t="n">
-        <v>406.2122840124613</v>
+        <v>406.2122840124612</v>
       </c>
       <c r="E25" t="n">
-        <v>332.9419711806469</v>
+        <v>332.9419711806468</v>
       </c>
       <c r="F25" t="n">
-        <v>260.6948044333152</v>
+        <v>260.6948044333151</v>
       </c>
       <c r="G25" t="n">
         <v>167.6347485586128</v>
       </c>
       <c r="H25" t="n">
-        <v>96.06034252704933</v>
+        <v>96.06034252704929</v>
       </c>
       <c r="I25" t="n">
-        <v>73.37744609597337</v>
+        <v>73.37744609597333</v>
       </c>
       <c r="J25" t="n">
         <v>118.5000785429089</v>
       </c>
       <c r="K25" t="n">
-        <v>322.4872614917853</v>
+        <v>322.4872614917851</v>
       </c>
       <c r="L25" t="n">
         <v>639.0470599402813</v>
@@ -6175,22 +6175,22 @@
         <v>1801.929097837794</v>
       </c>
       <c r="T25" t="n">
-        <v>1654.805263157899</v>
+        <v>1591.757980337065</v>
       </c>
       <c r="U25" t="n">
-        <v>1440.345177034121</v>
+        <v>1377.297894213287</v>
       </c>
       <c r="V25" t="n">
-        <v>1260.303469578813</v>
+        <v>1197.256186757979</v>
       </c>
       <c r="W25" t="n">
-        <v>982.4817974715976</v>
+        <v>982.4817974715975</v>
       </c>
       <c r="X25" t="n">
-        <v>829.135027324159</v>
+        <v>829.1350273241588</v>
       </c>
       <c r="Y25" t="n">
-        <v>682.9852289312075</v>
+        <v>682.9852289312074</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C26" t="n">
         <v>1711.594658697161</v>
@@ -6212,7 +6212,7 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467786</v>
       </c>
       <c r="G26" t="n">
         <v>331.2808843398487</v>
@@ -6224,31 +6224,31 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J26" t="n">
-        <v>437.4316968760676</v>
+        <v>363.4548274582446</v>
       </c>
       <c r="K26" t="n">
-        <v>771.251070565914</v>
+        <v>697.2742011480909</v>
       </c>
       <c r="L26" t="n">
-        <v>1222.285283814323</v>
+        <v>1561.793016801445</v>
       </c>
       <c r="M26" t="n">
-        <v>1755.817188486247</v>
+        <v>2095.32492147337</v>
       </c>
       <c r="N26" t="n">
-        <v>2302.596005545029</v>
+        <v>2642.103738532152</v>
       </c>
       <c r="O26" t="n">
-        <v>2805.568476424366</v>
+        <v>3145.076209411489</v>
       </c>
       <c r="P26" t="n">
-        <v>3474.791320094414</v>
+        <v>3539.850575768667</v>
       </c>
       <c r="Q26" t="n">
-        <v>3933.269522603402</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R26" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834457</v>
       </c>
       <c r="S26" t="n">
         <v>3994.504809309626</v>
@@ -6260,7 +6260,7 @@
         <v>3629.895850863831</v>
       </c>
       <c r="V26" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W26" t="n">
         <v>3040.963574146293</v>
@@ -6306,22 +6306,22 @@
         <v>174.8241863873064</v>
       </c>
       <c r="K27" t="n">
-        <v>413.0883853676542</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L27" t="n">
-        <v>779.7865456803195</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M27" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N27" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O27" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P27" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351246</v>
       </c>
       <c r="Q27" t="n">
         <v>2579.688342997847</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502698</v>
+        <v>774.1010502697998</v>
       </c>
       <c r="C28" t="n">
-        <v>652.6145002899664</v>
+        <v>652.6145002899661</v>
       </c>
       <c r="D28" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257038</v>
       </c>
       <c r="E28" t="n">
-        <v>449.4840331913841</v>
+        <v>449.4840331913839</v>
       </c>
       <c r="F28" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415468</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643391</v>
       </c>
       <c r="H28" t="n">
         <v>131.0229611302705</v>
@@ -6385,22 +6385,22 @@
         <v>172.7749345960313</v>
       </c>
       <c r="K28" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L28" t="n">
-        <v>786.3326864982171</v>
+        <v>786.332686498217</v>
       </c>
       <c r="M28" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N28" t="n">
-        <v>1564.908879308444</v>
+        <v>1564.908879308443</v>
       </c>
       <c r="O28" t="n">
-        <v>1910.743863481264</v>
+        <v>1910.743863481263</v>
       </c>
       <c r="P28" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167329</v>
       </c>
       <c r="Q28" t="n">
         <v>2313.972430572251</v>
@@ -6418,7 +6418,7 @@
         <v>1711.385138644068</v>
       </c>
       <c r="V28" t="n">
-        <v>1504.150283386255</v>
+        <v>1504.150283386254</v>
       </c>
       <c r="W28" t="n">
         <v>1262.182746297367</v>
@@ -6427,7 +6427,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519661</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>2033.1075426895</v>
       </c>
       <c r="C29" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D29" t="n">
         <v>1400.778593038484</v>
@@ -6449,52 +6449,52 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467791</v>
       </c>
       <c r="G29" t="n">
         <v>331.2808843398486</v>
       </c>
       <c r="H29" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="I29" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J29" t="n">
-        <v>270.0260478557145</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K29" t="n">
-        <v>603.8454215455608</v>
+        <v>771.251070565914</v>
       </c>
       <c r="L29" t="n">
-        <v>1054.879634793969</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M29" t="n">
-        <v>1872.543307058812</v>
+        <v>2030.265665799118</v>
       </c>
       <c r="N29" t="n">
-        <v>2852.295579285458</v>
+        <v>2577.0444828579</v>
       </c>
       <c r="O29" t="n">
-        <v>3355.268050164795</v>
+        <v>3080.016953737237</v>
       </c>
       <c r="P29" t="n">
-        <v>3750.042416521973</v>
+        <v>3474.791320094415</v>
       </c>
       <c r="Q29" t="n">
-        <v>3998.328778277655</v>
+        <v>3933.269522603403</v>
       </c>
       <c r="R29" t="n">
         <v>4057.345844834458</v>
       </c>
       <c r="S29" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T29" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U29" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V29" t="n">
         <v>3346.282596468334</v>
@@ -6503,7 +6503,7 @@
         <v>3040.963574146293</v>
       </c>
       <c r="X29" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y29" t="n">
         <v>2372.257749805548</v>
@@ -6537,7 +6537,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I30" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J30" t="n">
         <v>174.8241863873064</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502697995</v>
+        <v>774.1010502697998</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899659</v>
+        <v>652.6145002899661</v>
       </c>
       <c r="D31" t="n">
-        <v>549.9474938257035</v>
+        <v>549.9474938257038</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4840331913838</v>
+        <v>449.484033191384</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415468</v>
+        <v>350.043718641547</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643391</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H31" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I31" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J31" t="n">
         <v>172.7749345960314</v>
@@ -6625,7 +6625,7 @@
         <v>423.2675027973144</v>
       </c>
       <c r="L31" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982173</v>
       </c>
       <c r="M31" t="n">
         <v>1176.995117350173</v>
@@ -6655,7 +6655,7 @@
         <v>1711.385138644068</v>
       </c>
       <c r="V31" t="n">
-        <v>1504.150283386254</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W31" t="n">
         <v>1262.182746297367</v>
@@ -6664,7 +6664,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519659</v>
+        <v>908.2998821519661</v>
       </c>
     </row>
     <row r="32">
@@ -6680,16 +6680,16 @@
         <v>1711.594658697161</v>
       </c>
       <c r="D32" t="n">
-        <v>1400.778593038483</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E32" t="n">
         <v>1062.439973388313</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467784</v>
+        <v>698.9037015467786</v>
       </c>
       <c r="G32" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H32" t="n">
         <v>81.14691689668915</v>
@@ -6701,28 +6701,28 @@
         <v>437.4316968760676</v>
       </c>
       <c r="K32" t="n">
-        <v>1092.155029011367</v>
+        <v>771.251070565914</v>
       </c>
       <c r="L32" t="n">
-        <v>1543.189242259775</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M32" t="n">
-        <v>2076.7211469317</v>
+        <v>1755.817188486247</v>
       </c>
       <c r="N32" t="n">
-        <v>2623.499963990482</v>
+        <v>2302.596005545029</v>
       </c>
       <c r="O32" t="n">
-        <v>3126.472434869819</v>
+        <v>2805.568476424366</v>
       </c>
       <c r="P32" t="n">
-        <v>3521.246801226996</v>
+        <v>3474.791320094414</v>
       </c>
       <c r="Q32" t="n">
         <v>3933.269522603402</v>
       </c>
       <c r="R32" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834457</v>
       </c>
       <c r="S32" t="n">
         <v>3994.504809309626</v>
@@ -6734,16 +6734,16 @@
         <v>3629.895850863831</v>
       </c>
       <c r="V32" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W32" t="n">
-        <v>3040.963574146292</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X32" t="n">
-        <v>2714.947448833285</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y32" t="n">
-        <v>2372.257749805547</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="33">
@@ -6832,31 +6832,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502697995</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899659</v>
       </c>
       <c r="D34" t="n">
-        <v>549.9474938257041</v>
+        <v>549.9474938257035</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913838</v>
       </c>
       <c r="F34" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415468</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643391</v>
       </c>
       <c r="H34" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302702</v>
       </c>
       <c r="I34" t="n">
         <v>81.14691689668915</v>
       </c>
       <c r="J34" t="n">
-        <v>172.7749345960313</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K34" t="n">
         <v>423.2675027973144</v>
@@ -6901,7 +6901,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519659</v>
       </c>
     </row>
     <row r="35">
@@ -6926,7 +6926,7 @@
         <v>698.9037015467788</v>
       </c>
       <c r="G35" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H35" t="n">
         <v>81.14691689668915</v>
@@ -6944,28 +6944,28 @@
         <v>1054.879634793969</v>
       </c>
       <c r="M35" t="n">
-        <v>2033.429937623798</v>
+        <v>1986.936041136908</v>
       </c>
       <c r="N35" t="n">
-        <v>2852.295579285458</v>
+        <v>2533.71485819569</v>
       </c>
       <c r="O35" t="n">
-        <v>3355.268050164795</v>
+        <v>3036.687329075027</v>
       </c>
       <c r="P35" t="n">
-        <v>3750.042416521972</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q35" t="n">
         <v>3998.328778277655</v>
       </c>
       <c r="R35" t="n">
-        <v>4057.345844834457</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S35" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T35" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U35" t="n">
         <v>3629.895850863831</v>
@@ -7032,7 +7032,7 @@
         <v>2111.547193875144</v>
       </c>
       <c r="P36" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351246</v>
       </c>
       <c r="Q36" t="n">
         <v>2579.688342997847</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>774.1010502697995</v>
+        <v>774.1010502698005</v>
       </c>
       <c r="C37" t="n">
-        <v>652.6145002899659</v>
+        <v>652.6145002899668</v>
       </c>
       <c r="D37" t="n">
-        <v>549.9474938257035</v>
+        <v>549.9474938257044</v>
       </c>
       <c r="E37" t="n">
-        <v>449.4840331913838</v>
+        <v>449.4840331913846</v>
       </c>
       <c r="F37" t="n">
-        <v>350.0437186415468</v>
+        <v>350.0437186415475</v>
       </c>
       <c r="G37" t="n">
-        <v>229.7905149643391</v>
+        <v>229.7905149643398</v>
       </c>
       <c r="H37" t="n">
         <v>131.0229611302705</v>
@@ -7093,13 +7093,13 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J37" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960313</v>
       </c>
       <c r="K37" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L37" t="n">
-        <v>786.3326864982171</v>
+        <v>786.332686498217</v>
       </c>
       <c r="M37" t="n">
         <v>1176.995117350173</v>
@@ -7114,31 +7114,31 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q37" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R37" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277853</v>
       </c>
       <c r="S37" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052753</v>
       </c>
       <c r="T37" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U37" t="n">
         <v>1711.385138644068</v>
       </c>
       <c r="V37" t="n">
-        <v>1504.150283386254</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W37" t="n">
         <v>1262.182746297367</v>
       </c>
       <c r="X37" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347424</v>
       </c>
       <c r="Y37" t="n">
-        <v>908.2998821519659</v>
+        <v>908.2998821519668</v>
       </c>
     </row>
     <row r="38">
@@ -7163,7 +7163,7 @@
         <v>698.9037015467788</v>
       </c>
       <c r="G38" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H38" t="n">
         <v>81.14691689668915</v>
@@ -7172,22 +7172,22 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J38" t="n">
-        <v>437.4316968760676</v>
+        <v>393.2994530991704</v>
       </c>
       <c r="K38" t="n">
-        <v>771.2510705659141</v>
+        <v>727.1188267890168</v>
       </c>
       <c r="L38" t="n">
-        <v>1222.285283814323</v>
+        <v>1178.153040037425</v>
       </c>
       <c r="M38" t="n">
-        <v>1755.817188486248</v>
+        <v>1711.68494470935</v>
       </c>
       <c r="N38" t="n">
-        <v>2302.59600554503</v>
+        <v>2258.463761768132</v>
       </c>
       <c r="O38" t="n">
-        <v>2805.568476424367</v>
+        <v>2761.436232647469</v>
       </c>
       <c r="P38" t="n">
         <v>3474.791320094414</v>
@@ -7196,7 +7196,7 @@
         <v>3933.269522603402</v>
       </c>
       <c r="R38" t="n">
-        <v>4057.345844834457</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S38" t="n">
         <v>3994.504809309626</v>
@@ -7208,7 +7208,7 @@
         <v>3629.895850863831</v>
       </c>
       <c r="V38" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W38" t="n">
         <v>3040.963574146293</v>
@@ -7227,34 +7227,34 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>956.1786549456137</v>
+        <v>956.1786549456143</v>
       </c>
       <c r="C39" t="n">
-        <v>781.7256256644868</v>
+        <v>781.7256256644873</v>
       </c>
       <c r="D39" t="n">
-        <v>632.7912160032356</v>
+        <v>632.7912160032361</v>
       </c>
       <c r="E39" t="n">
-        <v>473.55376099778</v>
+        <v>473.5537609977806</v>
       </c>
       <c r="F39" t="n">
-        <v>327.0192030246651</v>
+        <v>327.0192030246656</v>
       </c>
       <c r="G39" t="n">
-        <v>190.6561028572836</v>
+        <v>190.6561028572837</v>
       </c>
       <c r="H39" t="n">
-        <v>100.1542084951511</v>
+        <v>100.1542084951512</v>
       </c>
       <c r="I39" t="n">
         <v>81.14691689668915</v>
       </c>
       <c r="J39" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K39" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L39" t="n">
         <v>779.7865456803188</v>
@@ -7263,7 +7263,7 @@
         <v>1227.062870902635</v>
       </c>
       <c r="N39" t="n">
-        <v>1700.585914457089</v>
+        <v>1700.58591445709</v>
       </c>
       <c r="O39" t="n">
         <v>2111.547193875144</v>
@@ -7281,13 +7281,13 @@
         <v>2450.106103083842</v>
       </c>
       <c r="T39" t="n">
-        <v>2257.463102761697</v>
+        <v>2257.463102761698</v>
       </c>
       <c r="U39" t="n">
         <v>2029.395255896113</v>
       </c>
       <c r="V39" t="n">
-        <v>1794.24314766437</v>
+        <v>1794.243147664371</v>
       </c>
       <c r="W39" t="n">
         <v>1540.005790936169</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>774.1010502697999</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C40" t="n">
-        <v>652.6145002899663</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D40" t="n">
-        <v>549.9474938257039</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E40" t="n">
-        <v>449.4840331913841</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F40" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G40" t="n">
         <v>229.7905149643394</v>
@@ -7330,25 +7330,25 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J40" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960313</v>
       </c>
       <c r="K40" t="n">
         <v>423.2675027973144</v>
       </c>
       <c r="L40" t="n">
-        <v>786.3326864982172</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M40" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N40" t="n">
-        <v>1564.908879308443</v>
+        <v>1564.908879308444</v>
       </c>
       <c r="O40" t="n">
-        <v>1910.743863481263</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P40" t="n">
-        <v>2189.856749167329</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q40" t="n">
         <v>2313.972430572251</v>
@@ -7375,7 +7375,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y40" t="n">
-        <v>908.2998821519662</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C41" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D41" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E41" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F41" t="n">
-        <v>698.9037015467802</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G41" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H41" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I41" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J41" t="n">
-        <v>270.0260478557146</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K41" t="n">
-        <v>924.7493799910139</v>
+        <v>771.251070565914</v>
       </c>
       <c r="L41" t="n">
-        <v>1394.992678104635</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M41" t="n">
-        <v>1928.524582776559</v>
+        <v>1755.817188486247</v>
       </c>
       <c r="N41" t="n">
-        <v>2475.303399835341</v>
+        <v>2302.596005545029</v>
       </c>
       <c r="O41" t="n">
-        <v>3355.268050164796</v>
+        <v>2805.568476424366</v>
       </c>
       <c r="P41" t="n">
-        <v>3750.042416521974</v>
+        <v>3518.923563871311</v>
       </c>
       <c r="Q41" t="n">
-        <v>3998.328778277656</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R41" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S41" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T41" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U41" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V41" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W41" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X41" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y41" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="42">
@@ -7485,22 +7485,22 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I42" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J42" t="n">
-        <v>174.8241863873071</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K42" t="n">
-        <v>413.0883853676542</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L42" t="n">
-        <v>779.7865456803195</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M42" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N42" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O42" t="n">
         <v>2111.547193875144</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>774.1010502697999</v>
+        <v>774.1010502697995</v>
       </c>
       <c r="C43" t="n">
-        <v>652.6145002899663</v>
+        <v>652.6145002899659</v>
       </c>
       <c r="D43" t="n">
-        <v>549.9474938257039</v>
+        <v>549.9474938257035</v>
       </c>
       <c r="E43" t="n">
-        <v>449.4840331913841</v>
+        <v>449.4840331913837</v>
       </c>
       <c r="F43" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415466</v>
       </c>
       <c r="G43" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643389</v>
       </c>
       <c r="H43" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I43" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J43" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960313</v>
       </c>
       <c r="K43" t="n">
-        <v>423.2675027973134</v>
+        <v>423.2675027973141</v>
       </c>
       <c r="L43" t="n">
-        <v>786.3326864982162</v>
+        <v>786.3326864982168</v>
       </c>
       <c r="M43" t="n">
         <v>1176.995117350172</v>
@@ -7588,7 +7588,7 @@
         <v>2189.856749167329</v>
       </c>
       <c r="Q43" t="n">
-        <v>2313.97243057225</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R43" t="n">
         <v>2271.591606277851</v>
@@ -7600,7 +7600,7 @@
         <v>1953.038372570351</v>
       </c>
       <c r="U43" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644067</v>
       </c>
       <c r="V43" t="n">
         <v>1504.150283386254</v>
@@ -7612,7 +7612,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y43" t="n">
-        <v>908.2998821519662</v>
+        <v>908.2998821519659</v>
       </c>
     </row>
     <row r="44">
@@ -7637,7 +7637,7 @@
         <v>698.9037015467788</v>
       </c>
       <c r="G44" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H44" t="n">
         <v>81.14691689668915</v>
@@ -7649,22 +7649,22 @@
         <v>437.4316968760676</v>
       </c>
       <c r="K44" t="n">
-        <v>1092.155029011367</v>
+        <v>771.251070565914</v>
       </c>
       <c r="L44" t="n">
-        <v>1543.189242259775</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M44" t="n">
-        <v>2076.7211469317</v>
+        <v>2200.835586644151</v>
       </c>
       <c r="N44" t="n">
-        <v>2623.499963990482</v>
+        <v>2747.614403702933</v>
       </c>
       <c r="O44" t="n">
-        <v>3126.472434869819</v>
+        <v>3250.58687458227</v>
       </c>
       <c r="P44" t="n">
-        <v>3750.042416521973</v>
+        <v>3645.361240939448</v>
       </c>
       <c r="Q44" t="n">
         <v>3998.328778277655</v>
@@ -7743,7 +7743,7 @@
         <v>2111.547193875144</v>
       </c>
       <c r="P45" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351246</v>
       </c>
       <c r="Q45" t="n">
         <v>2579.688342997847</v>
@@ -7780,40 +7780,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>774.1010502697998</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C46" t="n">
-        <v>652.6145002899661</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D46" t="n">
-        <v>549.9474938257038</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E46" t="n">
-        <v>449.484033191384</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F46" t="n">
-        <v>350.043718641547</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G46" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H46" t="n">
-        <v>131.0229611302704</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I46" t="n">
         <v>81.14691689668915</v>
       </c>
       <c r="J46" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960313</v>
       </c>
       <c r="K46" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973142</v>
       </c>
       <c r="L46" t="n">
-        <v>786.3326864982171</v>
+        <v>786.332686498217</v>
       </c>
       <c r="M46" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N46" t="n">
         <v>1564.908879308444</v>
@@ -7843,13 +7843,13 @@
         <v>1504.150283386255</v>
       </c>
       <c r="W46" t="n">
-        <v>1262.182746297368</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X46" t="n">
-        <v>1081.642828347424</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y46" t="n">
-        <v>908.2998821519661</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
   </sheetData>
@@ -8216,22 +8216,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>212.1614152764228</v>
+        <v>212.1614152764231</v>
       </c>
       <c r="L5" t="n">
-        <v>225.9304893188435</v>
+        <v>225.9304893188439</v>
       </c>
       <c r="M5" t="n">
-        <v>219.4018707603976</v>
+        <v>219.401870760398</v>
       </c>
       <c r="N5" t="n">
-        <v>218.291609903023</v>
+        <v>218.2916099030235</v>
       </c>
       <c r="O5" t="n">
-        <v>219.5965380661482</v>
+        <v>219.5965380661486</v>
       </c>
       <c r="P5" t="n">
-        <v>222.2700605111174</v>
+        <v>222.2700605111177</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8292,28 +8292,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>123.6869003357292</v>
+        <v>123.6869003357293</v>
       </c>
       <c r="K6" t="n">
-        <v>132.4563458344804</v>
+        <v>132.4563458344806</v>
       </c>
       <c r="L6" t="n">
-        <v>131.3134574915375</v>
+        <v>131.3134574915378</v>
       </c>
       <c r="M6" t="n">
-        <v>133.6842191437695</v>
+        <v>133.6842191437698</v>
       </c>
       <c r="N6" t="n">
-        <v>122.6682558511129</v>
+        <v>122.6682558511132</v>
       </c>
       <c r="O6" t="n">
-        <v>134.6617264891794</v>
+        <v>134.6617264891797</v>
       </c>
       <c r="P6" t="n">
-        <v>127.6062572357705</v>
+        <v>127.6062572357708</v>
       </c>
       <c r="Q6" t="n">
-        <v>135.7248343369103</v>
+        <v>135.7248343369105</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8377,19 +8377,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L7" t="n">
-        <v>130.7280129970307</v>
+        <v>130.7280129970309</v>
       </c>
       <c r="M7" t="n">
-        <v>134.5431653216058</v>
+        <v>134.543165321606</v>
       </c>
       <c r="N7" t="n">
-        <v>123.407134714526</v>
+        <v>123.4071347145261</v>
       </c>
       <c r="O7" t="n">
-        <v>134.5047345663799</v>
+        <v>134.5047345663801</v>
       </c>
       <c r="P7" t="n">
-        <v>134.346553129917</v>
+        <v>134.3465531299171</v>
       </c>
       <c r="Q7" t="n">
         <v>65.34295837775146</v>
@@ -9170,7 +9170,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>7.958078640513122e-13</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>-4.405364961712621e-13</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>61.7677344425758</v>
+        <v>18.00043680397863</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9653,13 +9653,13 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9872,13 +9872,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>94.37250464902019</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9890,13 +9890,13 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>277.2206841544151</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10118,10 +10118,10 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>287.001785447392</v>
+        <v>277.2206841544154</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -10130,10 +10130,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10349,7 +10349,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10364,10 +10364,10 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>277.2206841544146</v>
       </c>
       <c r="Q32" t="n">
-        <v>165.3902622431554</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10592,16 +10592,16 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>402.5500016878934</v>
       </c>
       <c r="N35" t="n">
-        <v>274.8351763665432</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>124.5185911550059</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10838,7 +10838,7 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>277.220684154413</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -11057,13 +11057,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>19.40311602546683</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11072,16 +11072,16 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>167.7369666428374</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11297,13 +11297,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -11312,10 +11312,10 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>231.1066821161376</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>105.7385611944694</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -22796,7 +22796,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>15.24040888277509</v>
+        <v>15.2404088827751</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>189.1652966918693</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>338.3516754465272</v>
@@ -23267,10 +23267,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>105.9958295085496</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>384.0005093289731</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23315,7 +23315,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>300.8310421456546</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23422,19 +23422,19 @@
         <v>121.694256693732</v>
       </c>
       <c r="E13" t="n">
-        <v>119.5127463220888</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>105.4523595011247</v>
+        <v>139.1045919345479</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>69.43120408535776</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>62.01093634556699</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>155.2917179740234</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>355.8126253390002</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23501,19 +23501,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>355.0091537477815</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>185.032047344556</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>14.65571344844562</v>
+        <v>14.65571344844565</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,10 +23543,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>55.79331992954123</v>
+        <v>82.26654546369549</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>176.9967538151398</v>
       </c>
       <c r="U14" t="n">
         <v>224.0739556344216</v>
@@ -23555,7 +23555,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>322.3197523929327</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>140.3256047741475</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>69.43120408535776</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>43.12826708901829</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23710,10 +23710,10 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>225.2164269993476</v>
+        <v>225.2164269993477</v>
       </c>
       <c r="W16" t="n">
-        <v>252.8850759485229</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23744,7 +23744,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>24.19965327003985</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23783,7 +23783,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>24.19965327004115</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23978,13 +23978,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>79.1812364633865</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>220.7114114442476</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24020,13 +24020,13 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>112.3257305462004</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>253.855905527062</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -26311,22 +26311,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>184337.1762113336</v>
+        <v>184337.1762113337</v>
       </c>
       <c r="C2" t="n">
-        <v>184338.2925171391</v>
+        <v>184338.2925171392</v>
       </c>
       <c r="D2" t="n">
         <v>184339.6977421054</v>
       </c>
       <c r="E2" t="n">
+        <v>164146.9253068887</v>
+      </c>
+      <c r="F2" t="n">
         <v>164146.9253068888</v>
       </c>
-      <c r="F2" t="n">
-        <v>164146.9253068889</v>
-      </c>
       <c r="G2" t="n">
-        <v>178769.7030064147</v>
+        <v>178769.7030064148</v>
       </c>
       <c r="H2" t="n">
         <v>178769.7030064148</v>
@@ -26350,7 +26350,7 @@
         <v>184734.3982194639</v>
       </c>
       <c r="O2" t="n">
-        <v>184734.3982194638</v>
+        <v>184734.3982194637</v>
       </c>
       <c r="P2" t="n">
         <v>184734.3982194638</v>
@@ -26366,10 +26366,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>14118.19859945488</v>
+        <v>14118.19859945433</v>
       </c>
       <c r="D3" t="n">
-        <v>16714.64353072154</v>
+        <v>16714.64353072206</v>
       </c>
       <c r="E3" t="n">
         <v>1117168.84147192</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>22820.4416190586</v>
+        <v>22820.44161905848</v>
       </c>
       <c r="J3" t="n">
-        <v>25410.44272728103</v>
+        <v>25410.44272728112</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>37580.10929487408</v>
+        <v>37580.10929487411</v>
       </c>
       <c r="M3" t="n">
-        <v>207188.5682920729</v>
+        <v>207188.568292073</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,46 +26418,46 @@
         <v>430898.5094426759</v>
       </c>
       <c r="C4" t="n">
-        <v>426739.1543200265</v>
+        <v>426739.1543200267</v>
       </c>
       <c r="D4" t="n">
         <v>421594.991239873</v>
       </c>
       <c r="E4" t="n">
-        <v>37585.46710210906</v>
+        <v>37585.46710210905</v>
       </c>
       <c r="F4" t="n">
-        <v>37585.46710210906</v>
+        <v>37585.46710210905</v>
       </c>
       <c r="G4" t="n">
-        <v>74613.22686521045</v>
+        <v>74613.2268652104</v>
       </c>
       <c r="H4" t="n">
-        <v>74613.22686521038</v>
+        <v>74613.22686521037</v>
       </c>
       <c r="I4" t="n">
-        <v>85473.00365913918</v>
+        <v>85473.00365913913</v>
       </c>
       <c r="J4" t="n">
-        <v>80755.36360646598</v>
+        <v>80755.36360646597</v>
       </c>
       <c r="K4" t="n">
-        <v>80755.36360646601</v>
+        <v>80755.36360646599</v>
       </c>
       <c r="L4" t="n">
         <v>80755.36360646598</v>
       </c>
       <c r="M4" t="n">
-        <v>80755.36360646599</v>
+        <v>80755.36360646598</v>
       </c>
       <c r="N4" t="n">
-        <v>80755.36360646592</v>
+        <v>80755.36360646595</v>
       </c>
       <c r="O4" t="n">
-        <v>80755.36360646604</v>
+        <v>80755.36360646598</v>
       </c>
       <c r="P4" t="n">
-        <v>80755.36360646601</v>
+        <v>80755.36360646598</v>
       </c>
     </row>
     <row r="5">
@@ -26470,16 +26470,16 @@
         <v>33627.6</v>
       </c>
       <c r="C5" t="n">
-        <v>33965.59259112995</v>
+        <v>33965.59259112993</v>
       </c>
       <c r="D5" t="n">
         <v>34391.06348367693</v>
       </c>
       <c r="E5" t="n">
-        <v>76569.58029657602</v>
+        <v>76569.58029657604</v>
       </c>
       <c r="F5" t="n">
-        <v>76569.58029657602</v>
+        <v>76569.58029657601</v>
       </c>
       <c r="G5" t="n">
         <v>80518.7330569645</v>
@@ -26488,7 +26488,7 @@
         <v>80518.7330569645</v>
       </c>
       <c r="I5" t="n">
-        <v>85736.38360144486</v>
+        <v>85736.38360144483</v>
       </c>
       <c r="J5" t="n">
         <v>89377.9416748061</v>
@@ -26506,7 +26506,7 @@
         <v>89377.9416748061</v>
       </c>
       <c r="O5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.9416748061</v>
       </c>
       <c r="P5" t="n">
         <v>89377.94167480612</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-280188.9332313422</v>
+        <v>-280193.3468092103</v>
       </c>
       <c r="C6" t="n">
-        <v>-290484.6529934722</v>
+        <v>-290489.054167942</v>
       </c>
       <c r="D6" t="n">
-        <v>-288361.0005121661</v>
+        <v>-288365.386073026</v>
       </c>
       <c r="E6" t="n">
-        <v>-1067176.963563717</v>
+        <v>-1067405.713262745</v>
       </c>
       <c r="F6" t="n">
-        <v>49991.87790820377</v>
+        <v>49763.12820917548</v>
       </c>
       <c r="G6" t="n">
-        <v>-13942.36621063435</v>
+        <v>-14008.64060189028</v>
       </c>
       <c r="H6" t="n">
-        <v>23637.74308423993</v>
+        <v>23571.46869298388</v>
       </c>
       <c r="I6" t="n">
-        <v>-9295.430660179001</v>
+        <v>-9295.430660178798</v>
       </c>
       <c r="J6" t="n">
-        <v>-10809.34978908928</v>
+        <v>-10809.34978908944</v>
       </c>
       <c r="K6" t="n">
-        <v>14601.09293819169</v>
+        <v>14601.09293819171</v>
       </c>
       <c r="L6" t="n">
-        <v>-22979.01635668233</v>
+        <v>-22979.01635668236</v>
       </c>
       <c r="M6" t="n">
-        <v>-192587.4753538812</v>
+        <v>-192587.4753538813</v>
       </c>
       <c r="N6" t="n">
-        <v>14601.09293819188</v>
+        <v>14601.09293819194</v>
       </c>
       <c r="O6" t="n">
-        <v>14601.09293819166</v>
+        <v>14601.09293819165</v>
       </c>
       <c r="P6" t="n">
-        <v>14601.09293819169</v>
+        <v>14601.09293819172</v>
       </c>
     </row>
   </sheetData>
@@ -26692,13 +26692,13 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448034</v>
       </c>
       <c r="F2" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448034</v>
       </c>
       <c r="G2" t="n">
-        <v>73.89635294307298</v>
+        <v>73.89635294307297</v>
       </c>
       <c r="H2" t="n">
         <v>73.89635294307291</v>
@@ -26707,25 +26707,25 @@
         <v>73.89635294307291</v>
       </c>
       <c r="J2" t="n">
+        <v>46.97513661859257</v>
+      </c>
+      <c r="K2" t="n">
+        <v>46.97513661859258</v>
+      </c>
+      <c r="L2" t="n">
+        <v>46.97513661859259</v>
+      </c>
+      <c r="M2" t="n">
         <v>46.97513661859256</v>
       </c>
-      <c r="K2" t="n">
-        <v>46.97513661859259</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>46.97513661859256</v>
       </c>
-      <c r="M2" t="n">
-        <v>46.97513661859259</v>
-      </c>
-      <c r="N2" t="n">
-        <v>46.97513661859259</v>
-      </c>
       <c r="O2" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P2" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="3">
@@ -26738,7 +26738,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>15.50424729953908</v>
+        <v>15.50424729953848</v>
       </c>
       <c r="D3" t="n">
         <v>35.02126071912533</v>
@@ -26796,10 +26796,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="G4" t="n">
         <v>831.4014554022926</v>
@@ -26808,13 +26808,13 @@
         <v>831.4014554022926</v>
       </c>
       <c r="I4" t="n">
-        <v>917.2180761996671</v>
+        <v>917.2180761996666</v>
       </c>
       <c r="J4" t="n">
         <v>1014.336461208614</v>
       </c>
       <c r="K4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="L4" t="n">
         <v>1014.336461208614</v>
@@ -26826,7 +26826,7 @@
         <v>1014.336461208614</v>
       </c>
       <c r="O4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="P4" t="n">
         <v>1014.336461208614</v>
@@ -26914,31 +26914,31 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448034</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
+        <v>46.97513661859263</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
         <v>46.97513661859264</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>46.97513661859261</v>
-      </c>
       <c r="M2" t="n">
-        <v>3.552713678800501e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26960,10 +26960,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>15.50424729953908</v>
+        <v>15.50424729953848</v>
       </c>
       <c r="D3" t="n">
-        <v>19.51701341958625</v>
+        <v>19.51701341958685</v>
       </c>
       <c r="E3" t="n">
         <v>1054.755439874173</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>85.81662079737441</v>
+        <v>85.81662079737396</v>
       </c>
       <c r="J4" t="n">
-        <v>97.11838500894737</v>
+        <v>97.11838500894771</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448034</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859264</v>
+        <v>46.97513661859263</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27631,13 +27631,13 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>338.8364790096107</v>
+        <v>338.8364790096108</v>
       </c>
       <c r="I5" t="n">
-        <v>208.0729649713487</v>
+        <v>208.0729649713488</v>
       </c>
       <c r="J5" t="n">
-        <v>6.659224593851692</v>
+        <v>6.659224593851899</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27658,13 +27658,13 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>3.259908116783595</v>
+        <v>3.259908116783858</v>
       </c>
       <c r="R5" t="n">
-        <v>145.9538669886686</v>
+        <v>145.9538669886688</v>
       </c>
       <c r="S5" t="n">
-        <v>207.5997558763428</v>
+        <v>207.5997558763429</v>
       </c>
       <c r="T5" t="n">
         <v>222.8230059759757</v>
@@ -27713,7 +27713,7 @@
         <v>111.9133654388211</v>
       </c>
       <c r="I6" t="n">
-        <v>88.24844095234543</v>
+        <v>88.24844095234548</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,10 +27740,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>98.08728580573488</v>
+        <v>98.08728580573495</v>
       </c>
       <c r="S6" t="n">
-        <v>171.063732544276</v>
+        <v>171.0637325442761</v>
       </c>
       <c r="T6" t="n">
         <v>200.0303097960643</v>
@@ -27792,13 +27792,13 @@
         <v>161.9785962146699</v>
       </c>
       <c r="I7" t="n">
-        <v>154.6096872212439</v>
+        <v>154.609687221244</v>
       </c>
       <c r="J7" t="n">
-        <v>91.3825156699758</v>
+        <v>91.38251566997587</v>
       </c>
       <c r="K7" t="n">
-        <v>19.02122493263516</v>
+        <v>19.02122493263528</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>83.82090190946398</v>
+        <v>83.82090190946407</v>
       </c>
       <c r="R7" t="n">
-        <v>176.0362765059642</v>
+        <v>176.0362765059643</v>
       </c>
       <c r="S7" t="n">
         <v>223.5293580029851</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448034</v>
       </c>
       <c r="C11" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448034</v>
       </c>
       <c r="D11" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448034</v>
       </c>
       <c r="E11" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448034</v>
       </c>
       <c r="F11" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448034</v>
       </c>
       <c r="G11" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448034</v>
       </c>
       <c r="H11" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448034</v>
       </c>
       <c r="I11" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448034</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448034</v>
       </c>
       <c r="T11" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448034</v>
       </c>
       <c r="U11" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448034</v>
       </c>
       <c r="V11" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448034</v>
       </c>
       <c r="W11" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448034</v>
       </c>
       <c r="X11" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448034</v>
       </c>
       <c r="Y11" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448034</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448034</v>
       </c>
       <c r="C13" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448034</v>
       </c>
       <c r="D13" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448034</v>
       </c>
       <c r="E13" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448034</v>
       </c>
       <c r="F13" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448034</v>
       </c>
       <c r="G13" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448034</v>
       </c>
       <c r="H13" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448034</v>
       </c>
       <c r="I13" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448034</v>
       </c>
       <c r="J13" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448034</v>
       </c>
       <c r="K13" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448034</v>
       </c>
       <c r="L13" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448034</v>
       </c>
       <c r="M13" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448034</v>
       </c>
       <c r="N13" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448034</v>
       </c>
       <c r="O13" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448034</v>
       </c>
       <c r="P13" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448034</v>
       </c>
       <c r="Q13" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448034</v>
       </c>
       <c r="R13" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448034</v>
       </c>
       <c r="S13" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448034</v>
       </c>
       <c r="T13" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448034</v>
       </c>
       <c r="U13" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448034</v>
       </c>
       <c r="V13" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448034</v>
       </c>
       <c r="W13" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448034</v>
       </c>
       <c r="X13" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448034</v>
       </c>
       <c r="Y13" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448034</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448034</v>
       </c>
       <c r="C14" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448034</v>
       </c>
       <c r="D14" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448034</v>
       </c>
       <c r="E14" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448034</v>
       </c>
       <c r="F14" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448034</v>
       </c>
       <c r="G14" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448034</v>
       </c>
       <c r="H14" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448034</v>
       </c>
       <c r="I14" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448034</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448034</v>
       </c>
       <c r="T14" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448034</v>
       </c>
       <c r="U14" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448034</v>
       </c>
       <c r="V14" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448034</v>
       </c>
       <c r="W14" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448034</v>
       </c>
       <c r="X14" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448034</v>
       </c>
       <c r="Y14" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448034</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448034</v>
       </c>
       <c r="C16" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448034</v>
       </c>
       <c r="D16" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448034</v>
       </c>
       <c r="E16" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448034</v>
       </c>
       <c r="F16" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448034</v>
       </c>
       <c r="G16" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448034</v>
       </c>
       <c r="H16" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448034</v>
       </c>
       <c r="I16" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448034</v>
       </c>
       <c r="J16" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448034</v>
       </c>
       <c r="K16" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448034</v>
       </c>
       <c r="L16" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448034</v>
       </c>
       <c r="M16" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448034</v>
       </c>
       <c r="N16" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448034</v>
       </c>
       <c r="O16" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448034</v>
       </c>
       <c r="P16" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448034</v>
       </c>
       <c r="Q16" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448034</v>
       </c>
       <c r="R16" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448034</v>
       </c>
       <c r="S16" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448034</v>
       </c>
       <c r="T16" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448034</v>
       </c>
       <c r="U16" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448034</v>
       </c>
       <c r="V16" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448034</v>
       </c>
       <c r="W16" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448034</v>
       </c>
       <c r="X16" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448034</v>
       </c>
       <c r="Y16" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448034</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>73.89635294307298</v>
+        <v>73.89635294307297</v>
       </c>
       <c r="C17" t="n">
-        <v>73.89635294307298</v>
+        <v>73.89635294307297</v>
       </c>
       <c r="D17" t="n">
-        <v>73.89635294307298</v>
+        <v>73.89635294307297</v>
       </c>
       <c r="E17" t="n">
-        <v>73.89635294307298</v>
+        <v>73.89635294307297</v>
       </c>
       <c r="F17" t="n">
-        <v>73.89635294307298</v>
+        <v>73.89635294307297</v>
       </c>
       <c r="G17" t="n">
-        <v>73.89635294307298</v>
+        <v>73.89635294307297</v>
       </c>
       <c r="H17" t="n">
-        <v>73.89635294307298</v>
+        <v>73.89635294307297</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>73.89635294307298</v>
+        <v>73.89635294307297</v>
       </c>
       <c r="T17" t="n">
-        <v>73.89635294307298</v>
+        <v>73.89635294307297</v>
       </c>
       <c r="U17" t="n">
-        <v>73.89635294307298</v>
+        <v>73.89635294307297</v>
       </c>
       <c r="V17" t="n">
-        <v>73.89635294307298</v>
+        <v>73.89635294307297</v>
       </c>
       <c r="W17" t="n">
-        <v>73.89635294307298</v>
+        <v>73.89635294307297</v>
       </c>
       <c r="X17" t="n">
-        <v>73.89635294307298</v>
+        <v>73.89635294307297</v>
       </c>
       <c r="Y17" t="n">
-        <v>73.89635294307298</v>
+        <v>73.89635294307297</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>73.89635294307298</v>
+        <v>73.89635294307297</v>
       </c>
       <c r="C19" t="n">
-        <v>73.89635294307298</v>
+        <v>73.89635294307297</v>
       </c>
       <c r="D19" t="n">
-        <v>73.89635294307298</v>
+        <v>73.89635294307297</v>
       </c>
       <c r="E19" t="n">
-        <v>73.89635294307298</v>
+        <v>73.89635294307297</v>
       </c>
       <c r="F19" t="n">
-        <v>73.89635294307298</v>
+        <v>73.89635294307297</v>
       </c>
       <c r="G19" t="n">
-        <v>73.89635294307298</v>
+        <v>11.47954295044664</v>
       </c>
       <c r="H19" t="n">
-        <v>73.89635294307298</v>
+        <v>73.89635294307297</v>
       </c>
       <c r="I19" t="n">
-        <v>73.89635294307298</v>
+        <v>73.89635294307297</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28767,28 +28767,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>73.89635294307298</v>
+        <v>73.89635294307297</v>
       </c>
       <c r="S19" t="n">
-        <v>73.89635294307298</v>
+        <v>73.89635294307297</v>
       </c>
       <c r="T19" t="n">
-        <v>73.89635294307298</v>
+        <v>73.89635294307297</v>
       </c>
       <c r="U19" t="n">
-        <v>73.89635294307298</v>
+        <v>73.89635294307297</v>
       </c>
       <c r="V19" t="n">
-        <v>73.89635294307298</v>
+        <v>73.89635294307297</v>
       </c>
       <c r="W19" t="n">
-        <v>11.47954295044701</v>
+        <v>73.89635294307297</v>
       </c>
       <c r="X19" t="n">
-        <v>73.89635294307298</v>
+        <v>73.89635294307297</v>
       </c>
       <c r="Y19" t="n">
-        <v>73.89635294307298</v>
+        <v>73.89635294307297</v>
       </c>
     </row>
     <row r="20">
@@ -28965,10 +28965,10 @@
         <v>73.89635294307291</v>
       </c>
       <c r="E22" t="n">
-        <v>11.47954295044772</v>
+        <v>73.89635294307291</v>
       </c>
       <c r="F22" t="n">
-        <v>73.89635294307291</v>
+        <v>11.47954295044778</v>
       </c>
       <c r="G22" t="n">
         <v>73.89635294307291</v>
@@ -29247,7 +29247,7 @@
         <v>73.89635294307291</v>
       </c>
       <c r="T25" t="n">
-        <v>73.89635294307291</v>
+        <v>11.47954295044772</v>
       </c>
       <c r="U25" t="n">
         <v>73.89635294307291</v>
@@ -29256,7 +29256,7 @@
         <v>73.89635294307291</v>
       </c>
       <c r="W25" t="n">
-        <v>11.47954295044792</v>
+        <v>73.89635294307291</v>
       </c>
       <c r="X25" t="n">
         <v>73.89635294307291</v>
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292598</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292598</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292598</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C35" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D35" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E35" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F35" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G35" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H35" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292598</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T35" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U35" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V35" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W35" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X35" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y35" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C38" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D38" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E38" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F38" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G38" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H38" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T38" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U38" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V38" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W38" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X38" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y38" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859267</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M40" t="n">
-        <v>46.9751366185917</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C41" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D41" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E41" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F41" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G41" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H41" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292598</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T41" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U41" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V41" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W41" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X41" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y41" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859162</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C44" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D44" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E44" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F44" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G44" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H44" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292598</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T44" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U44" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V44" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W44" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X44" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y44" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C46" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D46" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E46" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F46" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G46" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H46" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I46" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J46" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K46" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L46" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M46" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N46" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O46" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P46" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R46" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S46" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T46" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U46" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V46" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W46" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X46" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
   </sheetData>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.06232863235995606</v>
+        <v>0.06232863235995362</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6383231061564001</v>
+        <v>0.6383231061563752</v>
       </c>
       <c r="I5" t="n">
-        <v>2.402924599057208</v>
+        <v>2.402924599057114</v>
       </c>
       <c r="J5" t="n">
-        <v>5.290064760760825</v>
+        <v>5.290064760760618</v>
       </c>
       <c r="K5" t="n">
-        <v>7.928435768557767</v>
+        <v>7.928435768557457</v>
       </c>
       <c r="L5" t="n">
-        <v>9.835925651143773</v>
+        <v>9.835925651143389</v>
       </c>
       <c r="M5" t="n">
-        <v>10.94436246687514</v>
+        <v>10.94436246687471</v>
       </c>
       <c r="N5" t="n">
-        <v>11.12145369356787</v>
+        <v>11.12145369356743</v>
       </c>
       <c r="O5" t="n">
-        <v>10.50167335553855</v>
+        <v>10.50167335553814</v>
       </c>
       <c r="P5" t="n">
-        <v>8.962935244152138</v>
+        <v>8.962935244151788</v>
       </c>
       <c r="Q5" t="n">
-        <v>6.73079109776121</v>
+        <v>6.730791097760946</v>
       </c>
       <c r="R5" t="n">
-        <v>3.915250952481093</v>
+        <v>3.91525095248094</v>
       </c>
       <c r="S5" t="n">
-        <v>1.4203137099025</v>
+        <v>1.420313709902445</v>
       </c>
       <c r="T5" t="n">
-        <v>0.2728435881557078</v>
+        <v>0.2728435881556971</v>
       </c>
       <c r="U5" t="n">
-        <v>0.004986290588796484</v>
+        <v>0.004986290588796289</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03334875834240482</v>
+        <v>0.03334875834240351</v>
       </c>
       <c r="H6" t="n">
-        <v>0.3220787976753308</v>
+        <v>0.3220787976753182</v>
       </c>
       <c r="I6" t="n">
-        <v>1.14819189906964</v>
+        <v>1.148191899069595</v>
       </c>
       <c r="J6" t="n">
-        <v>3.150726330937466</v>
+        <v>3.150726330937343</v>
       </c>
       <c r="K6" t="n">
-        <v>5.385093139878588</v>
+        <v>5.385093139878379</v>
       </c>
       <c r="L6" t="n">
-        <v>7.240922288336625</v>
+        <v>7.240922288336343</v>
       </c>
       <c r="M6" t="n">
-        <v>8.449814778248799</v>
+        <v>8.449814778248468</v>
       </c>
       <c r="N6" t="n">
-        <v>8.673456232220452</v>
+        <v>8.673456232220115</v>
       </c>
       <c r="O6" t="n">
-        <v>7.934517955265061</v>
+        <v>7.934517955264751</v>
       </c>
       <c r="P6" t="n">
-        <v>6.368150178559741</v>
+        <v>6.368150178559493</v>
       </c>
       <c r="Q6" t="n">
-        <v>4.256939749111184</v>
+        <v>4.256939749111018</v>
       </c>
       <c r="R6" t="n">
-        <v>2.070548346908258</v>
+        <v>2.070548346908177</v>
       </c>
       <c r="S6" t="n">
-        <v>0.6194385595617733</v>
+        <v>0.6194385595617491</v>
       </c>
       <c r="T6" t="n">
-        <v>0.1344188987573246</v>
+        <v>0.1344188987573194</v>
       </c>
       <c r="U6" t="n">
-        <v>0.002193997259368739</v>
+        <v>0.002193997259368653</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.02795847873687375</v>
+        <v>0.02795847873687266</v>
       </c>
       <c r="H7" t="n">
-        <v>0.2485762927696595</v>
+        <v>0.2485762927696498</v>
       </c>
       <c r="I7" t="n">
-        <v>0.840787706014349</v>
+        <v>0.8407877060143162</v>
       </c>
       <c r="J7" t="n">
-        <v>1.976664446696974</v>
+        <v>1.976664446696897</v>
       </c>
       <c r="K7" t="n">
-        <v>3.248266893247695</v>
+        <v>3.248266893247568</v>
       </c>
       <c r="L7" t="n">
-        <v>4.156663284207577</v>
+        <v>4.156663284207414</v>
       </c>
       <c r="M7" t="n">
-        <v>4.382618625999219</v>
+        <v>4.382618625999047</v>
       </c>
       <c r="N7" t="n">
-        <v>4.278409750707238</v>
+        <v>4.278409750707071</v>
       </c>
       <c r="O7" t="n">
-        <v>3.951803885462847</v>
+        <v>3.951803885462693</v>
       </c>
       <c r="P7" t="n">
-        <v>3.38145091923062</v>
+        <v>3.381450919230488</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.341141342230401</v>
+        <v>2.34114134223031</v>
       </c>
       <c r="R7" t="n">
-        <v>1.25711487120525</v>
+        <v>1.257114871205201</v>
       </c>
       <c r="S7" t="n">
-        <v>0.4872400339871542</v>
+        <v>0.4872400339871351</v>
       </c>
       <c r="T7" t="n">
-        <v>0.119458954603006</v>
+        <v>0.1194589546030013</v>
       </c>
       <c r="U7" t="n">
-        <v>0.001525007931102206</v>
+        <v>0.001525007931102147</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,43 +31750,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31835,40 +31835,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31923,16 +31923,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31941,16 +31941,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32075,7 +32075,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026441</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
@@ -32093,7 +32093,7 @@
         <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002933</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
         <v>299.2156706987486</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I17" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32309,40 +32309,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026441</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32397,16 +32397,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32415,16 +32415,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32549,7 +32549,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026441</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
@@ -32567,7 +32567,7 @@
         <v>557.7086478970249</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002933</v>
       </c>
       <c r="Q21" t="n">
         <v>299.2156706987486</v>
@@ -33026,7 +33026,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353163</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
         <v>508.9565619138795</v>
@@ -33044,7 +33044,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33752,10 +33752,10 @@
         <v>557.7086478970249</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002933</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I38" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33968,40 +33968,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233481</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O39" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34041,13 +34041,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34056,16 +34056,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34074,16 +34074,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34208,7 +34208,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026444</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
@@ -34226,7 +34226,7 @@
         <v>557.7086478970249</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002933</v>
       </c>
       <c r="Q42" t="n">
         <v>299.2156706987486</v>
@@ -34460,13 +34460,13 @@
         <v>609.6478166837924</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970255</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P45" t="n">
         <v>447.6103584002926</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,25 +35565,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>72.49963293754655</v>
+        <v>72.49963293754659</v>
       </c>
       <c r="K13" t="n">
         <v>232.9688758687999</v>
       </c>
       <c r="L13" t="n">
-        <v>346.6785884946784</v>
+        <v>346.6785884946785</v>
       </c>
       <c r="M13" t="n">
-        <v>374.5545957179641</v>
+        <v>374.5545957179642</v>
       </c>
       <c r="N13" t="n">
         <v>371.7781624920204</v>
       </c>
       <c r="O13" t="n">
-        <v>329.27434654712</v>
+        <v>329.2743465471201</v>
       </c>
       <c r="P13" t="n">
-        <v>261.8782874695907</v>
+        <v>261.8782874695908</v>
       </c>
       <c r="Q13" t="n">
         <v>105.315454862374</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597746</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
@@ -35741,7 +35741,7 @@
         <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859631</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
         <v>159.2338966127271</v>
@@ -35802,16 +35802,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>72.49963293754655</v>
+        <v>72.49963293754654</v>
       </c>
       <c r="K16" t="n">
-        <v>232.9688758687999</v>
+        <v>232.9688758687998</v>
       </c>
       <c r="L16" t="n">
         <v>346.6785884946784</v>
       </c>
       <c r="M16" t="n">
-        <v>374.5545957179642</v>
+        <v>374.5545957179641</v>
       </c>
       <c r="N16" t="n">
         <v>371.7781624920204</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302273</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222434</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597743</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36054,13 +36054,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597743</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
@@ -36215,7 +36215,7 @@
         <v>415.1124034525805</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859631</v>
       </c>
       <c r="Q21" t="n">
         <v>159.2338966127271</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>252.5547354112883</v>
+        <v>208.7874377726911</v>
       </c>
       <c r="K23" t="n">
         <v>337.1912865554004</v>
@@ -36373,13 +36373,13 @@
         <v>508.053000888219</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36592,13 +36592,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>285.1595056177327</v>
       </c>
       <c r="K26" t="n">
         <v>337.1912865554004</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M26" t="n">
         <v>538.9211158302265</v>
@@ -36610,13 +36610,13 @@
         <v>508.053000888219</v>
       </c>
       <c r="P26" t="n">
-        <v>675.9826703737867</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q26" t="n">
         <v>463.1092954636241</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,7 +36674,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609573</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
         <v>370.4021821340053</v>
@@ -36692,7 +36692,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,13 +36750,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K28" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M28" t="n">
         <v>394.6085160120763</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
         <v>337.1912865554004</v>
@@ -36838,10 +36838,10 @@
         <v>455.5901143923319</v>
       </c>
       <c r="M29" t="n">
-        <v>825.9229012776185</v>
+        <v>816.1417999846419</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O29" t="n">
         <v>508.053000888219</v>
@@ -36850,10 +36850,10 @@
         <v>398.7619862193716</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36996,7 +36996,7 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M31" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N31" t="n">
         <v>391.8320827861326</v>
@@ -37005,7 +37005,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P31" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q31" t="n">
         <v>125.3693751564862</v>
@@ -37069,7 +37069,7 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L32" t="n">
         <v>455.5901143923319</v>
@@ -37084,10 +37084,10 @@
         <v>508.053000888219</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193716</v>
+        <v>675.9826703737863</v>
       </c>
       <c r="Q32" t="n">
-        <v>416.1845670468748</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R32" t="n">
         <v>125.3296184152072</v>
@@ -37224,16 +37224,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K34" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M34" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N34" t="n">
         <v>391.8320827861326</v>
@@ -37242,7 +37242,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P34" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q34" t="n">
         <v>125.3693751564862</v>
@@ -37312,16 +37312,16 @@
         <v>455.5901143923319</v>
       </c>
       <c r="M35" t="n">
-        <v>988.434649323059</v>
+        <v>941.47111751812</v>
       </c>
       <c r="N35" t="n">
-        <v>827.1370117794545</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O35" t="n">
         <v>508.053000888219</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q35" t="n">
         <v>250.7943048037194</v>
@@ -37400,10 +37400,10 @@
         <v>415.1124034525805</v>
       </c>
       <c r="P36" t="n">
-        <v>313.6359509859631</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,16 +37461,16 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K37" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M37" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N37" t="n">
         <v>391.8320827861326</v>
@@ -37479,7 +37479,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P37" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q37" t="n">
         <v>125.3693751564862</v>
@@ -37540,28 +37540,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>359.8836161407863</v>
+        <v>315.3055921237184</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P38" t="n">
-        <v>675.9826703737849</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R38" t="n">
         <v>125.3296184152072</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013298</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K40" t="n">
         <v>253.0227961629122</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M40" t="n">
-        <v>394.6085160120755</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N40" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O40" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P40" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3693751564863</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,13 +37777,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L41" t="n">
-        <v>474.9932304177988</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M41" t="n">
         <v>538.9211158302265</v>
@@ -37792,16 +37792,16 @@
         <v>552.3018354129113</v>
       </c>
       <c r="O41" t="n">
-        <v>888.8531821509644</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037194</v>
+        <v>418.5312714465568</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597773</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
@@ -37874,7 +37874,7 @@
         <v>415.1124034525805</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859631</v>
       </c>
       <c r="Q42" t="n">
         <v>159.2338966127271</v>
@@ -37935,16 +37935,16 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.5535532316588</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K43" t="n">
-        <v>253.0227961629111</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M43" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N43" t="n">
         <v>391.8320827861326</v>
@@ -37953,7 +37953,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P43" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q43" t="n">
         <v>125.3693751564862</v>
@@ -38017,13 +38017,13 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L44" t="n">
         <v>455.5901143923319</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302265</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N44" t="n">
         <v>552.3018354129113</v>
@@ -38032,10 +38032,10 @@
         <v>508.053000888219</v>
       </c>
       <c r="P44" t="n">
-        <v>629.8686683355093</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037194</v>
+        <v>356.5328659981889</v>
       </c>
       <c r="R44" t="n">
         <v>59.61319854222472</v>
@@ -38108,13 +38108,13 @@
         <v>478.3061046004591</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525811</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.5535532316588</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K46" t="n">
         <v>253.0227961629121</v>
@@ -38181,7 +38181,7 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M46" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N46" t="n">
         <v>391.8320827861326</v>
@@ -38190,7 +38190,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P46" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q46" t="n">
         <v>125.3693751564862</v>
